--- a/combine_effort/2. 31-oct-2021 to predict 07-november 2021/files/auto-correlation1.xlsx
+++ b/combine_effort/2. 31-oct-2021 to predict 07-november 2021/files/auto-correlation1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laolu projects\machine_learning\combine_effort\2021 11 7th-13th prediction\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laolu projects\machine_learning\combine_effort\2. 31-oct-2021 to predict 07-november 2021\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9B2E1B-7D8E-4CC3-981D-733C7DEF5286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0E1AE4-355A-4F23-AEFE-30D077C01140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pips calculation" sheetId="28" r:id="rId1"/>
@@ -612,7 +612,7 @@
   <dimension ref="B1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,8 +1330,8 @@
         <v>54.999999999993946</v>
       </c>
       <c r="M24">
-        <f>K24</f>
-        <v>54.999999999993946</v>
+        <f>K24*-1</f>
+        <v>-54.999999999993946</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M32">
         <f>SUM(M3:M31)</f>
-        <v>5317.9999999999445</v>
+        <v>5207.9999999999573</v>
       </c>
       <c r="O32">
         <f>SUM(O3:O31)</f>
